--- a/FFT-100-3000.xlsx
+++ b/FFT-100-3000.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ESP32_FFT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\ESP32_FFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE8B88D-70C2-47DB-93BF-DB512B3D906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7621FA-BD18-4596-9D18-BBECE07C167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="1245" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MusicNotes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Sample Rate</t>
   </si>
@@ -120,13 +121,73 @@
   </si>
   <si>
     <t>Copy the generated code below into your sketch:</t>
+  </si>
+  <si>
+    <t>Octave</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D#</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F#</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>G#</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>increment</t>
+  </si>
+  <si>
+    <t>Bin Spacing Needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPLES </t>
+  </si>
+  <si>
+    <t>SAMPLING_FREQ</t>
+  </si>
+  <si>
+    <t>BinWidth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +211,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +231,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -290,11 +381,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -316,6 +502,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,9 +594,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +634,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +740,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +882,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,36 +892,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.140625" customWidth="1"/>
+    <col min="8" max="8" width="55.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -690,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -704,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -718,7 +963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -729,7 +974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -740,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -752,7 +997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -767,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -782,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -794,12 +1039,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H16" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -820,7 +1065,7 @@
         <v>//16 bands, 3kHz top band</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14">
         <v>0</v>
       </c>
@@ -844,7 +1089,7 @@
         <v xml:space="preserve">      if (i&lt;=3 )           bandValues[0]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>1</v>
       </c>
@@ -869,7 +1114,7 @@
         <v xml:space="preserve">      if (i&gt;3   &amp;&amp; i&lt;=4  ) bandValues[1]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>2</v>
       </c>
@@ -894,7 +1139,7 @@
         <v xml:space="preserve">      if (i&gt;4   &amp;&amp; i&lt;=5  ) bandValues[2]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>3</v>
       </c>
@@ -919,7 +1164,7 @@
         <v xml:space="preserve">      if (i&gt;5   &amp;&amp; i&lt;=6  ) bandValues[3]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="7">
         <v>4</v>
       </c>
@@ -944,7 +1189,7 @@
         <v xml:space="preserve">      if (i&gt;6   &amp;&amp; i&lt;=7  ) bandValues[4]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>5</v>
       </c>
@@ -969,7 +1214,7 @@
         <v xml:space="preserve">      if (i&gt;7   &amp;&amp; i&lt;=9  ) bandValues[5]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <v>6</v>
       </c>
@@ -994,7 +1239,7 @@
         <v xml:space="preserve">      if (i&gt;9   &amp;&amp; i&lt;=11  ) bandValues[6]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>7</v>
       </c>
@@ -1019,7 +1264,7 @@
         <v xml:space="preserve">      if (i&gt;11   &amp;&amp; i&lt;=14  ) bandValues[7]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>8</v>
       </c>
@@ -1044,7 +1289,7 @@
         <v xml:space="preserve">      if (i&gt;14   &amp;&amp; i&lt;=18  ) bandValues[8]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <v>9</v>
       </c>
@@ -1069,7 +1314,7 @@
         <v xml:space="preserve">      if (i&gt;18   &amp;&amp; i&lt;=22  ) bandValues[9]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>10</v>
       </c>
@@ -1094,7 +1339,7 @@
         <v xml:space="preserve">      if (i&gt;22   &amp;&amp; i&lt;=28  ) bandValues[10]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>11</v>
       </c>
@@ -1119,7 +1364,7 @@
         <v xml:space="preserve">      if (i&gt;28   &amp;&amp; i&lt;=35  ) bandValues[11]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="7">
         <v>12</v>
       </c>
@@ -1144,7 +1389,7 @@
         <v xml:space="preserve">      if (i&gt;35   &amp;&amp; i&lt;=44  ) bandValues[12]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <v>13</v>
       </c>
@@ -1169,7 +1414,7 @@
         <v xml:space="preserve">      if (i&gt;44   &amp;&amp; i&lt;=55  ) bandValues[13]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <v>14</v>
       </c>
@@ -1194,7 +1439,7 @@
         <v xml:space="preserve">      if (i&gt;55   &amp;&amp; i&lt;=69  ) bandValues[14]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="7">
         <v>15</v>
       </c>
@@ -1219,7 +1464,7 @@
         <v xml:space="preserve">      if (i&gt;69             ) bandValues[15]  += (int)vReal[i];</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>16</v>
       </c>
@@ -1244,7 +1489,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>17</v>
       </c>
@@ -1269,7 +1514,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="7">
         <v>18</v>
       </c>
@@ -1294,7 +1539,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="7">
         <v>19</v>
       </c>
@@ -1319,7 +1564,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>20</v>
       </c>
@@ -1344,7 +1589,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="7">
         <v>21</v>
       </c>
@@ -1369,7 +1614,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>22</v>
       </c>
@@ -1394,7 +1639,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <v>23</v>
       </c>
@@ -1419,7 +1664,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="7">
         <v>24</v>
       </c>
@@ -1444,7 +1689,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>25</v>
       </c>
@@ -1469,7 +1714,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="7">
         <v>26</v>
       </c>
@@ -1494,7 +1739,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="7">
         <v>27</v>
       </c>
@@ -1519,7 +1764,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="7">
         <v>28</v>
       </c>
@@ -1544,7 +1789,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="7">
         <v>29</v>
       </c>
@@ -1569,7 +1814,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <v>30</v>
       </c>
@@ -1594,7 +1839,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="7">
         <v>31</v>
       </c>
@@ -1619,7 +1864,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="7">
         <v>32</v>
       </c>
@@ -1644,7 +1889,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="7">
         <v>33</v>
       </c>
@@ -1669,7 +1914,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <v>34</v>
       </c>
@@ -1694,7 +1939,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="7">
         <v>35</v>
       </c>
@@ -1719,7 +1964,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="7">
         <v>36</v>
       </c>
@@ -1744,7 +1989,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="7">
         <v>37</v>
       </c>
@@ -1769,7 +2014,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="7">
         <v>38</v>
       </c>
@@ -1794,7 +2039,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="7">
         <v>39</v>
       </c>
@@ -1819,7 +2064,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="7">
         <v>40</v>
       </c>
@@ -1844,7 +2089,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" s="7">
         <v>41</v>
       </c>
@@ -1869,7 +2114,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="7">
         <v>42</v>
       </c>
@@ -1894,7 +2139,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="7">
         <v>43</v>
       </c>
@@ -1919,7 +2164,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="7">
         <v>44</v>
       </c>
@@ -1944,7 +2189,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="7">
         <v>45</v>
       </c>
@@ -1969,7 +2214,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B64" s="7">
         <v>46</v>
       </c>
@@ -1994,7 +2239,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="7">
         <v>47</v>
       </c>
@@ -2019,7 +2264,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="7">
         <v>48</v>
       </c>
@@ -2044,7 +2289,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B67" s="7">
         <v>49</v>
       </c>
@@ -2069,7 +2314,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B68" s="7">
         <v>50</v>
       </c>
@@ -2094,7 +2339,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B69" s="7">
         <v>51</v>
       </c>
@@ -2119,7 +2364,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B70" s="7">
         <v>52</v>
       </c>
@@ -2144,7 +2389,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="7">
         <v>53</v>
       </c>
@@ -2169,7 +2414,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B72" s="7">
         <v>54</v>
       </c>
@@ -2194,7 +2439,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="7">
         <v>55</v>
       </c>
@@ -2219,7 +2464,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B74" s="7">
         <v>56</v>
       </c>
@@ -2244,7 +2489,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B75" s="7">
         <v>57</v>
       </c>
@@ -2269,7 +2514,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B76" s="7">
         <v>58</v>
       </c>
@@ -2294,7 +2539,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B77" s="7">
         <v>59</v>
       </c>
@@ -2319,7 +2564,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B78" s="7">
         <v>60</v>
       </c>
@@ -2344,7 +2589,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>61</v>
       </c>
@@ -2369,7 +2614,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B80" s="7">
         <v>62</v>
       </c>
@@ -2394,7 +2639,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B81" s="8">
         <v>63</v>
       </c>
@@ -2419,7 +2664,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -2439,4 +2684,770 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556B9780-770B-4608-B0D0-7A6DD4871528}">
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="35">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35">
+        <v>2</v>
+      </c>
+      <c r="E1" s="35">
+        <v>3</v>
+      </c>
+      <c r="F1" s="35">
+        <v>4</v>
+      </c>
+      <c r="G1" s="35">
+        <v>5</v>
+      </c>
+      <c r="H1" s="35">
+        <v>6</v>
+      </c>
+      <c r="I1" s="35">
+        <v>7</v>
+      </c>
+      <c r="J1" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="32">
+        <v>27.5</v>
+      </c>
+      <c r="C2" s="28">
+        <f>C13*$B$17</f>
+        <v>55.004086857984575</v>
+      </c>
+      <c r="D2" s="29">
+        <f t="shared" ref="D2:J2" si="0">D13*$B$17</f>
+        <v>110.00817371596918</v>
+      </c>
+      <c r="E2" s="30">
+        <f t="shared" si="0"/>
+        <v>220.01634743193841</v>
+      </c>
+      <c r="F2" s="31">
+        <f t="shared" si="0"/>
+        <v>440.03269486387717</v>
+      </c>
+      <c r="G2" s="27">
+        <f t="shared" si="0"/>
+        <v>880.06538972775479</v>
+      </c>
+      <c r="H2" s="28">
+        <f t="shared" si="0"/>
+        <v>1760.1307794555105</v>
+      </c>
+      <c r="I2" s="29">
+        <f t="shared" si="0"/>
+        <v>3520.2615589110223</v>
+      </c>
+      <c r="J2" s="30">
+        <f t="shared" si="0"/>
+        <v>7040.5231178220511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="33">
+        <v>29.14</v>
+      </c>
+      <c r="C3" s="23">
+        <f>C2*$B$17</f>
+        <v>58.274800064967785</v>
+      </c>
+      <c r="D3" s="24">
+        <f t="shared" ref="D3:J4" si="1">D2*$B$17</f>
+        <v>116.5496001299356</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" si="1"/>
+        <v>233.09920025987128</v>
+      </c>
+      <c r="F3" s="26">
+        <f t="shared" si="1"/>
+        <v>466.1984005197429</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" si="1"/>
+        <v>932.39680103948626</v>
+      </c>
+      <c r="H3" s="23">
+        <f t="shared" si="1"/>
+        <v>1864.7936020789734</v>
+      </c>
+      <c r="I3" s="24">
+        <f t="shared" si="1"/>
+        <v>3729.5872041579487</v>
+      </c>
+      <c r="J3" s="25">
+        <f t="shared" si="1"/>
+        <v>7459.1744083159037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="33">
+        <v>30.87</v>
+      </c>
+      <c r="C4" s="23">
+        <f>C3*$B$17</f>
+        <v>61.74000000000003</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" si="1"/>
+        <v>123.48000000000009</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" si="1"/>
+        <v>246.96000000000029</v>
+      </c>
+      <c r="F4" s="26">
+        <f t="shared" si="1"/>
+        <v>493.92000000000093</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="1"/>
+        <v>987.84000000000231</v>
+      </c>
+      <c r="H4" s="23">
+        <f t="shared" si="1"/>
+        <v>1975.6800000000055</v>
+      </c>
+      <c r="I4" s="24">
+        <f t="shared" si="1"/>
+        <v>3951.3600000000133</v>
+      </c>
+      <c r="J4" s="25">
+        <f t="shared" si="1"/>
+        <v>7902.720000000033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="22">
+        <f>B4*$B$17</f>
+        <v>32.705625722871446</v>
+      </c>
+      <c r="D5" s="23">
+        <f t="shared" ref="D5:J5" si="2">C4*$B$17</f>
+        <v>65.41125144574292</v>
+      </c>
+      <c r="E5" s="24">
+        <f t="shared" si="2"/>
+        <v>130.82250289148587</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="2"/>
+        <v>261.64500578297191</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="2"/>
+        <v>523.29001156594416</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="2"/>
+        <v>1046.5800231318888</v>
+      </c>
+      <c r="I5" s="23">
+        <f t="shared" si="2"/>
+        <v>2093.1600462637784</v>
+      </c>
+      <c r="J5" s="24">
+        <f t="shared" si="2"/>
+        <v>4186.3200925275596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="22">
+        <f>C5*$B$17</f>
+        <v>34.650403431310345</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" ref="D6:J13" si="3">D5*$B$17</f>
+        <v>69.300806862620718</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="3"/>
+        <v>138.60161372524146</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="3"/>
+        <v>277.20322745048315</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="shared" si="3"/>
+        <v>554.40645490096665</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="3"/>
+        <v>1108.8129098019338</v>
+      </c>
+      <c r="I6" s="23">
+        <f t="shared" si="3"/>
+        <v>2217.6258196038684</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="3"/>
+        <v>4435.2516392077396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="22">
+        <f t="shared" ref="C7:C13" si="4">C6*$B$17</f>
+        <v>36.710823640134002</v>
+      </c>
+      <c r="D7" s="23">
+        <f t="shared" si="3"/>
+        <v>73.421647280268033</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="3"/>
+        <v>146.84329456053609</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="3"/>
+        <v>293.68658912107242</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" si="3"/>
+        <v>587.37317824214529</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="3"/>
+        <v>1174.746356484291</v>
+      </c>
+      <c r="I7" s="23">
+        <f t="shared" si="3"/>
+        <v>2349.492712968583</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="3"/>
+        <v>4698.9854259371687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="22">
+        <f t="shared" si="4"/>
+        <v>38.893762810254742</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="3"/>
+        <v>77.787525620509513</v>
+      </c>
+      <c r="E8" s="24">
+        <f t="shared" si="3"/>
+        <v>155.57505124101905</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="3"/>
+        <v>311.15010248203833</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" si="3"/>
+        <v>622.30020496407712</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="3"/>
+        <v>1244.6004099281547</v>
+      </c>
+      <c r="I8" s="23">
+        <f t="shared" si="3"/>
+        <v>2489.2008198563103</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="3"/>
+        <v>4978.4016397126243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="22">
+        <f t="shared" si="4"/>
+        <v>41.206506298228973</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="3"/>
+        <v>82.413012596457975</v>
+      </c>
+      <c r="E9" s="24">
+        <f t="shared" si="3"/>
+        <v>164.82602519291598</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="3"/>
+        <v>329.65205038583218</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="3"/>
+        <v>659.30410077166482</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="3"/>
+        <v>1318.6082015433301</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" si="3"/>
+        <v>2637.2164030866616</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="3"/>
+        <v>5274.4328061733268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="22">
+        <f t="shared" si="4"/>
+        <v>43.656772670457457</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="3"/>
+        <v>87.313545340914942</v>
+      </c>
+      <c r="E10" s="24">
+        <f t="shared" si="3"/>
+        <v>174.62709068182991</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="3"/>
+        <v>349.25418136366011</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="3"/>
+        <v>698.50836272732067</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="3"/>
+        <v>1397.0167254546418</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" si="3"/>
+        <v>2794.033450909285</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="3"/>
+        <v>5588.0669018185745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="22">
+        <f t="shared" si="4"/>
+        <v>46.252739463183175</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="3"/>
+        <v>92.505478926366379</v>
+      </c>
+      <c r="E11" s="24">
+        <f t="shared" si="3"/>
+        <v>185.01095785273279</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="3"/>
+        <v>370.02191570546586</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="3"/>
+        <v>740.04383141093217</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="3"/>
+        <v>1480.087662821865</v>
+      </c>
+      <c r="I11" s="23">
+        <f t="shared" si="3"/>
+        <v>2960.1753256437314</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" si="3"/>
+        <v>5920.3506512874674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="22">
+        <f t="shared" si="4"/>
+        <v>49.003070474258337</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="3"/>
+        <v>98.006140948516702</v>
+      </c>
+      <c r="E12" s="24">
+        <f t="shared" si="3"/>
+        <v>196.01228189703343</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="3"/>
+        <v>392.02456379406721</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="3"/>
+        <v>784.04912758813487</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="3"/>
+        <v>1568.0982551762704</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="3"/>
+        <v>3136.1965103525422</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="3"/>
+        <v>6272.3930207050898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="22">
+        <f t="shared" si="4"/>
+        <v>51.916944677764356</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="3"/>
+        <v>103.83388935552874</v>
+      </c>
+      <c r="E13" s="24">
+        <f t="shared" si="3"/>
+        <v>207.66777871105754</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="3"/>
+        <v>415.33555742211541</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" si="3"/>
+        <v>830.67111484423128</v>
+      </c>
+      <c r="H13" s="22">
+        <f t="shared" si="3"/>
+        <v>1661.3422296884632</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="3"/>
+        <v>3322.6844593769279</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="3"/>
+        <v>6645.3689187538621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <f>2^(1/12)</f>
+        <v>1.0594630943592953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="35">
+        <v>0</v>
+      </c>
+      <c r="C20" s="35">
+        <v>1</v>
+      </c>
+      <c r="D20" s="35">
+        <v>2</v>
+      </c>
+      <c r="E20" s="35">
+        <v>3</v>
+      </c>
+      <c r="F20" s="35">
+        <v>4</v>
+      </c>
+      <c r="G20" s="35">
+        <v>5</v>
+      </c>
+      <c r="H20" s="35">
+        <v>6</v>
+      </c>
+      <c r="I20" s="35">
+        <v>7</v>
+      </c>
+      <c r="J20" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="39">
+        <f>B3-B2</f>
+        <v>1.6400000000000006</v>
+      </c>
+      <c r="C21" s="39">
+        <f>C6-C5</f>
+        <v>1.9447777084388989</v>
+      </c>
+      <c r="D21" s="39">
+        <f t="shared" ref="D21:J21" si="5">D6-D5</f>
+        <v>3.8895554168777977</v>
+      </c>
+      <c r="E21" s="39">
+        <f t="shared" si="5"/>
+        <v>7.7791108337555954</v>
+      </c>
+      <c r="F21" s="39">
+        <f t="shared" si="5"/>
+        <v>15.558221667511248</v>
+      </c>
+      <c r="G21" s="39">
+        <f t="shared" si="5"/>
+        <v>31.116443335022495</v>
+      </c>
+      <c r="H21" s="39">
+        <f t="shared" si="5"/>
+        <v>62.232886670044991</v>
+      </c>
+      <c r="I21" s="39">
+        <f t="shared" si="5"/>
+        <v>124.46577334008998</v>
+      </c>
+      <c r="J21" s="39">
+        <f t="shared" si="5"/>
+        <v>248.93154668017996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="40">
+        <v>15000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <f>B25/B26</f>
+        <v>1.8310546875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="40">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <v>12</v>
+      </c>
+      <c r="M30">
+        <v>13</v>
+      </c>
+      <c r="N30">
+        <v>14</v>
+      </c>
+      <c r="O30">
+        <v>15</v>
+      </c>
+      <c r="P30">
+        <v>16</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
+      </c>
+      <c r="R30">
+        <v>18</v>
+      </c>
+      <c r="S30">
+        <v>19</v>
+      </c>
+      <c r="T30">
+        <v>20</v>
+      </c>
+      <c r="U30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f>2^A30</f>
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:T31" si="6">2^B30</f>
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>512</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>1024</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>2048</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>4096</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>8192</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>16384</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>32768</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>65536</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>131072</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>262144</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>524288</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="6"/>
+        <v>1048576</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FFT-100-3000.xlsx
+++ b/FFT-100-3000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\ESP32_FFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7621FA-BD18-4596-9D18-BBECE07C167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247624A8-7C8B-4A6F-BFA6-9456E370824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,8 +557,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2690,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556B9780-770B-4608-B0D0-7A6DD4871528}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3281,14 +3281,14 @@
         <v>45</v>
       </c>
       <c r="B25" s="40">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
       </c>
       <c r="E25">
         <f>B25/B26</f>
-        <v>1.8310546875</v>
+        <v>2.44140625</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -3296,7 +3296,8 @@
         <v>44</v>
       </c>
       <c r="B26" s="40">
-        <v>8192</v>
+        <f>1024*2</f>
+        <v>2048</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">

--- a/FFT-100-3000.xlsx
+++ b/FFT-100-3000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\ESP32_FFT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\ESP32_FFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247624A8-7C8B-4A6F-BFA6-9456E370824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B72117-4324-4261-ADC6-8BB35043923A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="47250" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -892,41 +892,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.1796875" customWidth="1"/>
+    <col min="8" max="8" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -963,7 +963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -974,7 +974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -997,13 +997,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <f>B5/2</f>
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <f>B5/B8</f>
-        <v>39.0625</v>
+        <v>29.296875</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1039,12 +1039,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>//16 bands, 3kHz top band</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>0</v>
       </c>
@@ -1075,21 +1075,21 @@
       </c>
       <c r="D18" s="15">
         <f t="shared" ref="D18:D81" si="1">C18/$B$13</f>
-        <v>2.56</v>
+        <v>3.4133333333333336</v>
       </c>
       <c r="E18" s="15">
         <v>0</v>
       </c>
       <c r="F18" s="16">
         <f>((D19-D18)/2)+D18</f>
-        <v>2.8857751027038256</v>
+        <v>3.8477001369384336</v>
       </c>
       <c r="H18" s="19" t="str">
         <f>"      if (i&lt;="&amp;ROUND(F18,0)&amp;" )           bandValues["&amp;B18&amp;"]  += (int)vReal[i];"</f>
-        <v xml:space="preserve">      if (i&lt;=3 )           bandValues[0]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&lt;=4 )           bandValues[0]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>1</v>
       </c>
@@ -1099,22 +1099,22 @@
       </c>
       <c r="D19" s="13">
         <f t="shared" si="1"/>
-        <v>3.2115502054076508</v>
+        <v>4.2820669405435341</v>
       </c>
       <c r="E19" s="13">
         <f>F18</f>
-        <v>2.8857751027038256</v>
+        <v>3.8477001369384336</v>
       </c>
       <c r="F19" s="5">
         <f>((D20-D19)/2)+D19</f>
-        <v>3.6202389155659196</v>
+        <v>4.82698522075456</v>
       </c>
       <c r="H19" s="19" t="str">
         <f>IF(($B$9-1)&lt;B19,"",IF(($B$9-1)=B19,"      if (i&gt;"&amp;ROUND(E19,0)&amp;"             ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E19,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F19,0)&amp;"  ) bandValues["&amp;B19&amp;"]  += (int)vReal[i];"))</f>
-        <v xml:space="preserve">      if (i&gt;3   &amp;&amp; i&lt;=4  ) bandValues[1]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;4   &amp;&amp; i&lt;=5  ) bandValues[1]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>2</v>
       </c>
@@ -1124,22 +1124,22 @@
       </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>4.0289276257241884</v>
+        <v>5.3719035009655851</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" ref="E20:E81" si="2">F19</f>
-        <v>3.6202389155659196</v>
+        <v>4.82698522075456</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ref="F20:F81" si="3">((D21-D20)/2)+D20</f>
-        <v>4.5416324347306638</v>
+        <v>6.0555099129742187</v>
       </c>
       <c r="H20" s="19" t="str">
         <f t="shared" ref="H20:H81" si="4">IF(($B$9-1)&lt;B20,"",IF(($B$9-1)=B20,"      if (i&gt;"&amp;ROUND(E20,0)&amp;"             ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];","      if (i&gt;"&amp;ROUND(E20,0)&amp;"   &amp;&amp; i&lt;="&amp;ROUND(F20,0)&amp;"  ) bandValues["&amp;B20&amp;"]  += (int)vReal[i];"))</f>
-        <v xml:space="preserve">      if (i&gt;4   &amp;&amp; i&lt;=5  ) bandValues[2]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;5   &amp;&amp; i&lt;=6  ) bandValues[2]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>3</v>
       </c>
@@ -1149,22 +1149,22 @@
       </c>
       <c r="D21" s="13">
         <f t="shared" si="1"/>
-        <v>5.0543372437371392</v>
+        <v>6.7391163249828523</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="2"/>
-        <v>4.5416324347306638</v>
+        <v>6.0555099129742187</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="3"/>
-        <v>5.6975314760333244</v>
+        <v>7.5967086347111001</v>
       </c>
       <c r="H21" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;5   &amp;&amp; i&lt;=6  ) bandValues[3]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;6   &amp;&amp; i&lt;=8  ) bandValues[3]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>4</v>
       </c>
@@ -1174,22 +1174,22 @@
       </c>
       <c r="D22" s="13">
         <f t="shared" si="1"/>
-        <v>6.3407257083295105</v>
+        <v>8.454300944439348</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="2"/>
-        <v>5.6975314760333244</v>
+        <v>7.5967086347111001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="3"/>
-        <v>7.1476204617856958</v>
+        <v>9.5301606157142604</v>
       </c>
       <c r="H22" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;6   &amp;&amp; i&lt;=7  ) bandValues[4]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;8   &amp;&amp; i&lt;=10  ) bandValues[4]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>5</v>
       </c>
@@ -1199,22 +1199,22 @@
       </c>
       <c r="D23" s="13">
         <f t="shared" si="1"/>
-        <v>7.9545152152418801</v>
+        <v>10.606020286989173</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="2"/>
-        <v>7.1476204617856958</v>
+        <v>9.5301606157142604</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="3"/>
-        <v>8.966774203993662</v>
+        <v>11.955698938658216</v>
       </c>
       <c r="H23" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;7   &amp;&amp; i&lt;=9  ) bandValues[5]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;10   &amp;&amp; i&lt;=12  ) bandValues[5]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>6</v>
       </c>
@@ -1224,22 +1224,22 @@
       </c>
       <c r="D24" s="13">
         <f t="shared" si="1"/>
-        <v>9.9790331927454456</v>
+        <v>13.305377590327259</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="2"/>
-        <v>8.966774203993662</v>
+        <v>11.955698938658216</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="3"/>
-        <v>11.248924037765574</v>
+        <v>14.998565383687431</v>
       </c>
       <c r="H24" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;9   &amp;&amp; i&lt;=11  ) bandValues[6]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;12   &amp;&amp; i&lt;=15  ) bandValues[6]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>7</v>
       </c>
@@ -1249,22 +1249,22 @@
       </c>
       <c r="D25" s="13">
         <f t="shared" si="1"/>
-        <v>12.518814882785703</v>
+        <v>16.691753177047605</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="2"/>
-        <v>11.248924037765574</v>
+        <v>14.998565383687431</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="3"/>
-        <v>14.111907931289487</v>
+        <v>18.815877241719317</v>
       </c>
       <c r="H25" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;11   &amp;&amp; i&lt;=14  ) bandValues[7]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;15   &amp;&amp; i&lt;=19  ) bandValues[7]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>8</v>
       </c>
@@ -1274,22 +1274,22 @@
       </c>
       <c r="D26" s="13">
         <f t="shared" si="1"/>
-        <v>15.705000979793272</v>
+        <v>20.940001306391029</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="2"/>
-        <v>14.111907931289487</v>
+        <v>18.815877241719317</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="3"/>
-        <v>17.703555006026022</v>
+        <v>23.604740008034693</v>
       </c>
       <c r="H26" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;14   &amp;&amp; i&lt;=18  ) bandValues[8]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;19   &amp;&amp; i&lt;=24  ) bandValues[8]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>9</v>
       </c>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>19.702109032258768</v>
+        <v>26.269478709678356</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="2"/>
-        <v>17.703555006026022</v>
+        <v>23.604740008034693</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="3"/>
-        <v>22.209318639081449</v>
+        <v>29.612424852108596</v>
       </c>
       <c r="H27" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;18   &amp;&amp; i&lt;=22  ) bandValues[9]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;24   &amp;&amp; i&lt;=30  ) bandValues[9]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>10</v>
       </c>
@@ -1324,22 +1324,22 @@
       </c>
       <c r="D28" s="13">
         <f t="shared" si="1"/>
-        <v>24.716528245904129</v>
+        <v>32.955370994538839</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="2"/>
-        <v>22.209318639081449</v>
+        <v>29.612424852108596</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="3"/>
-        <v>27.861852280197652</v>
+        <v>37.149136373596868</v>
       </c>
       <c r="H28" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;22   &amp;&amp; i&lt;=28  ) bandValues[10]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;30   &amp;&amp; i&lt;=37  ) bandValues[10]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>11</v>
       </c>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="D29" s="13">
         <f t="shared" si="1"/>
-        <v>31.007176314491172</v>
+        <v>41.342901752654896</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="2"/>
-        <v>27.861852280197652</v>
+        <v>37.149136373596868</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="3"/>
-        <v>34.953022427150934</v>
+        <v>46.604029902867907</v>
       </c>
       <c r="H29" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;28   &amp;&amp; i&lt;=35  ) bandValues[11]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;37   &amp;&amp; i&lt;=47  ) bandValues[11]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>12</v>
       </c>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="D30" s="13">
         <f t="shared" si="1"/>
-        <v>38.898868539810692</v>
+        <v>51.865158053080926</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="2"/>
-        <v>34.953022427150934</v>
+        <v>46.604029902867907</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="3"/>
-        <v>43.848979045130775</v>
+        <v>58.465305393507705</v>
       </c>
       <c r="H30" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;35   &amp;&amp; i&lt;=44  ) bandValues[12]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;47   &amp;&amp; i&lt;=58  ) bandValues[12]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>13</v>
       </c>
@@ -1399,22 +1399,22 @@
       </c>
       <c r="D31" s="13">
         <f t="shared" si="1"/>
-        <v>48.799089550450866</v>
+        <v>65.065452733934492</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="2"/>
-        <v>43.848979045130775</v>
+        <v>58.465305393507705</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="3"/>
-        <v>55.009061585666217</v>
+        <v>73.345415447554956</v>
       </c>
       <c r="H31" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;44   &amp;&amp; i&lt;=55  ) bandValues[13]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;58   &amp;&amp; i&lt;=73  ) bandValues[13]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>14</v>
       </c>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="D32" s="13">
         <f t="shared" si="1"/>
-        <v>61.219033620881568</v>
+        <v>81.625378161175419</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="2"/>
-        <v>55.009061585666217</v>
+        <v>73.345415447554956</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="3"/>
-        <v>69.0095168104408</v>
+        <v>92.012689080587734</v>
       </c>
       <c r="H32" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;55   &amp;&amp; i&lt;=69  ) bandValues[14]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;73   &amp;&amp; i&lt;=92  ) bandValues[14]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>15</v>
       </c>
@@ -1449,22 +1449,22 @@
       </c>
       <c r="D33" s="13">
         <f t="shared" si="1"/>
-        <v>76.800000000000026</v>
+        <v>102.40000000000003</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="2"/>
-        <v>69.0095168104408</v>
+        <v>92.012689080587734</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="3"/>
-        <v>86.573253081114785</v>
+        <v>115.43100410815306</v>
       </c>
       <c r="H33" s="19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      if (i&gt;69             ) bandValues[15]  += (int)vReal[i];</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">      if (i&gt;92             ) bandValues[15]  += (int)vReal[i];</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>16</v>
       </c>
@@ -1474,22 +1474,22 @@
       </c>
       <c r="D34" s="13">
         <f t="shared" si="1"/>
-        <v>96.346506162229559</v>
+        <v>128.46200821630609</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="2"/>
-        <v>86.573253081114785</v>
+        <v>115.43100410815306</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="3"/>
-        <v>108.60716746697764</v>
+        <v>144.80955662263688</v>
       </c>
       <c r="H34" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>17</v>
       </c>
@@ -1499,22 +1499,22 @@
       </c>
       <c r="D35" s="13">
         <f t="shared" si="1"/>
-        <v>120.86782877172571</v>
+        <v>161.15710502896764</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="2"/>
-        <v>108.60716746697764</v>
+        <v>144.80955662263688</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="3"/>
-        <v>136.24897304191998</v>
+        <v>181.66529738922665</v>
       </c>
       <c r="H35" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>18</v>
       </c>
@@ -1524,22 +1524,22 @@
       </c>
       <c r="D36" s="13">
         <f t="shared" si="1"/>
-        <v>151.63011731211424</v>
+        <v>202.17348974948567</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="2"/>
-        <v>136.24897304191998</v>
+        <v>181.66529738922665</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="3"/>
-        <v>170.92594428099983</v>
+        <v>227.90125904133311</v>
       </c>
       <c r="H36" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>19</v>
       </c>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="D37" s="13">
         <f t="shared" si="1"/>
-        <v>190.22177124988542</v>
+        <v>253.62902833318054</v>
       </c>
       <c r="E37" s="13">
         <f t="shared" si="2"/>
-        <v>170.92594428099983</v>
+        <v>227.90125904133311</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="3"/>
-        <v>214.42861385357099</v>
+        <v>285.90481847142792</v>
       </c>
       <c r="H37" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>20</v>
       </c>
@@ -1574,22 +1574,22 @@
       </c>
       <c r="D38" s="13">
         <f t="shared" si="1"/>
-        <v>238.63545645725654</v>
+        <v>318.18060860967535</v>
       </c>
       <c r="E38" s="13">
         <f t="shared" si="2"/>
-        <v>214.42861385357099</v>
+        <v>285.90481847142792</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="3"/>
-        <v>269.00322611981005</v>
+        <v>358.67096815974674</v>
       </c>
       <c r="H38" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>21</v>
       </c>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="D39" s="13">
         <f t="shared" si="1"/>
-        <v>299.37099578236354</v>
+        <v>399.16132770981807</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="2"/>
-        <v>269.00322611981005</v>
+        <v>358.67096815974674</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="3"/>
-        <v>337.46772113296737</v>
+        <v>449.95696151062316</v>
       </c>
       <c r="H39" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>22</v>
       </c>
@@ -1624,22 +1624,22 @@
       </c>
       <c r="D40" s="13">
         <f t="shared" si="1"/>
-        <v>375.5644464835712</v>
+        <v>500.75259531142831</v>
       </c>
       <c r="E40" s="13">
         <f t="shared" si="2"/>
-        <v>337.46772113296737</v>
+        <v>449.95696151062316</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="3"/>
-        <v>423.35723793868476</v>
+        <v>564.47631725157976</v>
       </c>
       <c r="H40" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>23</v>
       </c>
@@ -1649,22 +1649,22 @@
       </c>
       <c r="D41" s="13">
         <f t="shared" si="1"/>
-        <v>471.15002939379838</v>
+        <v>628.20003919173121</v>
       </c>
       <c r="E41" s="13">
         <f t="shared" si="2"/>
-        <v>423.35723793868476</v>
+        <v>564.47631725157976</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="3"/>
-        <v>531.10665018078078</v>
+        <v>708.14220024104111</v>
       </c>
       <c r="H41" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>24</v>
       </c>
@@ -1674,22 +1674,22 @@
       </c>
       <c r="D42" s="13">
         <f t="shared" si="1"/>
-        <v>591.06327096776317</v>
+        <v>788.0843612903509</v>
       </c>
       <c r="E42" s="13">
         <f t="shared" si="2"/>
-        <v>531.10665018078078</v>
+        <v>708.14220024104111</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="3"/>
-        <v>666.27955917244378</v>
+        <v>888.37274556325838</v>
       </c>
       <c r="H42" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>25</v>
       </c>
@@ -1699,22 +1699,22 @@
       </c>
       <c r="D43" s="13">
         <f t="shared" si="1"/>
-        <v>741.49584737712439</v>
+        <v>988.66112983616574</v>
       </c>
       <c r="E43" s="13">
         <f t="shared" si="2"/>
-        <v>666.27955917244378</v>
+        <v>888.37274556325838</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="3"/>
-        <v>835.85556840592994</v>
+        <v>1114.4740912079067</v>
       </c>
       <c r="H43" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>26</v>
       </c>
@@ -1724,22 +1724,22 @@
       </c>
       <c r="D44" s="13">
         <f t="shared" si="1"/>
-        <v>930.21528943473561</v>
+        <v>1240.2870525796475</v>
       </c>
       <c r="E44" s="13">
         <f t="shared" si="2"/>
-        <v>835.85556840592994</v>
+        <v>1114.4740912079067</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="3"/>
-        <v>1048.5906728145285</v>
+        <v>1398.120897086038</v>
       </c>
       <c r="H44" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>27</v>
       </c>
@@ -1749,22 +1749,22 @@
       </c>
       <c r="D45" s="13">
         <f t="shared" si="1"/>
-        <v>1166.9660561943213</v>
+        <v>1555.9547415924283</v>
       </c>
       <c r="E45" s="13">
         <f t="shared" si="2"/>
-        <v>1048.5906728145285</v>
+        <v>1398.120897086038</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="3"/>
-        <v>1315.4693713539241</v>
+        <v>1753.9591618052318</v>
       </c>
       <c r="H45" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>28</v>
       </c>
@@ -1774,22 +1774,22 @@
       </c>
       <c r="D46" s="13">
         <f t="shared" si="1"/>
-        <v>1463.9726865135267</v>
+        <v>1951.9635820180356</v>
       </c>
       <c r="E46" s="13">
         <f t="shared" si="2"/>
-        <v>1315.4693713539241</v>
+        <v>1753.9591618052318</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="3"/>
-        <v>1650.2718475699874</v>
+        <v>2200.3624634266498</v>
       </c>
       <c r="H46" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>29</v>
       </c>
@@ -1799,22 +1799,22 @@
       </c>
       <c r="D47" s="13">
         <f t="shared" si="1"/>
-        <v>1836.571008626448</v>
+        <v>2448.761344835264</v>
       </c>
       <c r="E47" s="13">
         <f t="shared" si="2"/>
-        <v>1650.2718475699874</v>
+        <v>2200.3624634266498</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="3"/>
-        <v>2070.2855043132249</v>
+        <v>2760.3806724176329</v>
       </c>
       <c r="H47" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>30</v>
       </c>
@@ -1824,22 +1824,22 @@
       </c>
       <c r="D48" s="13">
         <f t="shared" si="1"/>
-        <v>2304.0000000000018</v>
+        <v>3072.0000000000023</v>
       </c>
       <c r="E48" s="13">
         <f t="shared" si="2"/>
-        <v>2070.2855043132249</v>
+        <v>2760.3806724176329</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="3"/>
-        <v>2597.1975924334447</v>
+        <v>3462.9301232445932</v>
       </c>
       <c r="H48" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>31</v>
       </c>
@@ -1849,22 +1849,22 @@
       </c>
       <c r="D49" s="13">
         <f t="shared" si="1"/>
-        <v>2890.3951848668876</v>
+        <v>3853.8602464891837</v>
       </c>
       <c r="E49" s="13">
         <f t="shared" si="2"/>
-        <v>2597.1975924334447</v>
+        <v>3462.9301232445932</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="3"/>
-        <v>3258.2150240093306</v>
+        <v>4344.2866986791068</v>
       </c>
       <c r="H49" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>32</v>
       </c>
@@ -1874,22 +1874,22 @@
       </c>
       <c r="D50" s="13">
         <f t="shared" si="1"/>
-        <v>3626.0348631517732</v>
+        <v>4834.7131508690309</v>
       </c>
       <c r="E50" s="13">
         <f t="shared" si="2"/>
-        <v>3258.2150240093306</v>
+        <v>4344.2866986791068</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="3"/>
-        <v>4087.4691912576009</v>
+        <v>5449.9589216768018</v>
       </c>
       <c r="H50" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>33</v>
       </c>
@@ -1899,22 +1899,22 @@
       </c>
       <c r="D51" s="13">
         <f t="shared" si="1"/>
-        <v>4548.903519363429</v>
+        <v>6065.2046924845718</v>
       </c>
       <c r="E51" s="13">
         <f t="shared" si="2"/>
-        <v>4087.4691912576009</v>
+        <v>5449.9589216768018</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="3"/>
-        <v>5127.7783284299967</v>
+        <v>6837.037771239995</v>
       </c>
       <c r="H51" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>34</v>
       </c>
@@ -1924,22 +1924,22 @@
       </c>
       <c r="D52" s="13">
         <f t="shared" si="1"/>
-        <v>5706.6531374965643</v>
+        <v>7608.8708499954191</v>
       </c>
       <c r="E52" s="13">
         <f t="shared" si="2"/>
-        <v>5127.7783284299967</v>
+        <v>6837.037771239995</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="3"/>
-        <v>6432.858415607132</v>
+        <v>8577.144554142842</v>
       </c>
       <c r="H52" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <v>35</v>
       </c>
@@ -1949,22 +1949,22 @@
       </c>
       <c r="D53" s="13">
         <f t="shared" si="1"/>
-        <v>7159.0636937176987</v>
+        <v>9545.4182582902649</v>
       </c>
       <c r="E53" s="13">
         <f t="shared" si="2"/>
-        <v>6432.858415607132</v>
+        <v>8577.144554142842</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="3"/>
-        <v>8070.0967835943038</v>
+        <v>10760.129044792404</v>
       </c>
       <c r="H53" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <v>36</v>
       </c>
@@ -1974,22 +1974,22 @@
       </c>
       <c r="D54" s="13">
         <f t="shared" si="1"/>
-        <v>8981.1298734709089</v>
+        <v>11974.839831294545</v>
       </c>
       <c r="E54" s="13">
         <f t="shared" si="2"/>
-        <v>8070.0967835943038</v>
+        <v>10760.129044792404</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="3"/>
-        <v>10124.031633989027</v>
+        <v>13498.708845318703</v>
       </c>
       <c r="H54" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <v>37</v>
       </c>
@@ -1999,22 +1999,22 @@
       </c>
       <c r="D55" s="13">
         <f t="shared" si="1"/>
-        <v>11266.933394507145</v>
+        <v>15022.577859342859</v>
       </c>
       <c r="E55" s="13">
         <f t="shared" si="2"/>
-        <v>10124.031633989027</v>
+        <v>13498.708845318703</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="3"/>
-        <v>12700.717138160551</v>
+        <v>16934.289517547404</v>
       </c>
       <c r="H55" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <v>38</v>
       </c>
@@ -2024,22 +2024,22 @@
       </c>
       <c r="D56" s="13">
         <f t="shared" si="1"/>
-        <v>14134.500881813958</v>
+        <v>18846.001175751946</v>
       </c>
       <c r="E56" s="13">
         <f t="shared" si="2"/>
-        <v>12700.717138160551</v>
+        <v>16934.289517547404</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" si="3"/>
-        <v>15933.19950542343</v>
+        <v>21244.266007231243</v>
       </c>
       <c r="H56" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>39</v>
       </c>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="D57" s="13">
         <f t="shared" si="1"/>
-        <v>17731.898129032903</v>
+        <v>23642.53083871054</v>
       </c>
       <c r="E57" s="13">
         <f t="shared" si="2"/>
-        <v>15933.19950542343</v>
+        <v>21244.266007231243</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="3"/>
-        <v>19988.38677517332</v>
+        <v>26651.182366897759</v>
       </c>
       <c r="H57" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>40</v>
       </c>
@@ -2074,22 +2074,22 @@
       </c>
       <c r="D58" s="13">
         <f t="shared" si="1"/>
-        <v>22244.875421313736</v>
+        <v>29659.833895084983</v>
       </c>
       <c r="E58" s="13">
         <f t="shared" si="2"/>
-        <v>19988.38677517332</v>
+        <v>26651.182366897759</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="3"/>
-        <v>25075.667052177909</v>
+        <v>33434.222736237214</v>
       </c>
       <c r="H58" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <v>41</v>
       </c>
@@ -2099,22 +2099,22 @@
       </c>
       <c r="D59" s="13">
         <f t="shared" si="1"/>
-        <v>27906.458683042085</v>
+        <v>37208.611577389449</v>
       </c>
       <c r="E59" s="13">
         <f t="shared" si="2"/>
-        <v>25075.667052177909</v>
+        <v>33434.222736237214</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="3"/>
-        <v>31457.720184435871</v>
+        <v>41943.62691258116</v>
       </c>
       <c r="H59" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <v>42</v>
       </c>
@@ -2124,22 +2124,22 @@
       </c>
       <c r="D60" s="13">
         <f t="shared" si="1"/>
-        <v>35008.981685829654</v>
+        <v>46678.64224777287</v>
       </c>
       <c r="E60" s="13">
         <f t="shared" si="2"/>
-        <v>31457.720184435871</v>
+        <v>41943.62691258116</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="3"/>
-        <v>39464.081140617738</v>
+        <v>52618.774854156974</v>
       </c>
       <c r="H60" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>43</v>
       </c>
@@ -2149,22 +2149,22 @@
       </c>
       <c r="D61" s="13">
         <f t="shared" si="1"/>
-        <v>43919.180595405815</v>
+        <v>58558.907460541086</v>
       </c>
       <c r="E61" s="13">
         <f t="shared" si="2"/>
-        <v>39464.081140617738</v>
+        <v>52618.774854156974</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="3"/>
-        <v>49508.155427099642</v>
+        <v>66010.873902799518</v>
       </c>
       <c r="H61" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <v>44</v>
       </c>
@@ -2174,22 +2174,22 @@
       </c>
       <c r="D62" s="13">
         <f t="shared" si="1"/>
-        <v>55097.130258793462</v>
+        <v>73462.84034505795</v>
       </c>
       <c r="E62" s="13">
         <f t="shared" si="2"/>
-        <v>49508.155427099642</v>
+        <v>66010.873902799518</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="3"/>
-        <v>62108.565129396782</v>
+        <v>82811.420172529033</v>
       </c>
       <c r="H62" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
         <v>45</v>
       </c>
@@ -2199,22 +2199,22 @@
       </c>
       <c r="D63" s="13">
         <f t="shared" si="1"/>
-        <v>69120.000000000102</v>
+        <v>92160.000000000131</v>
       </c>
       <c r="E63" s="13">
         <f t="shared" si="2"/>
-        <v>62108.565129396782</v>
+        <v>82811.420172529033</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="3"/>
-        <v>77915.927773003379</v>
+        <v>103887.90369733784</v>
       </c>
       <c r="H63" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
         <v>46</v>
       </c>
@@ -2224,22 +2224,22 @@
       </c>
       <c r="D64" s="13">
         <f t="shared" si="1"/>
-        <v>86711.855546006671</v>
+        <v>115615.80739467556</v>
       </c>
       <c r="E64" s="13">
         <f t="shared" si="2"/>
-        <v>77915.927773003379</v>
+        <v>103887.90369733784</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="3"/>
-        <v>97746.450720279943</v>
+        <v>130328.60096037327</v>
       </c>
       <c r="H64" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
         <v>47</v>
       </c>
@@ -2249,22 +2249,22 @@
       </c>
       <c r="D65" s="13">
         <f t="shared" si="1"/>
-        <v>108781.04589455323</v>
+        <v>145041.39452607097</v>
       </c>
       <c r="E65" s="13">
         <f t="shared" si="2"/>
-        <v>97746.450720279943</v>
+        <v>130328.60096037327</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="3"/>
-        <v>122624.07573772807</v>
+        <v>163498.76765030413</v>
       </c>
       <c r="H65" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
         <v>48</v>
       </c>
@@ -2274,22 +2274,22 @@
       </c>
       <c r="D66" s="13">
         <f t="shared" si="1"/>
-        <v>136467.10558090292</v>
+        <v>181956.14077453726</v>
       </c>
       <c r="E66" s="13">
         <f t="shared" si="2"/>
-        <v>122624.07573772807</v>
+        <v>163498.76765030413</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="3"/>
-        <v>153833.34985289996</v>
+        <v>205111.13313719997</v>
       </c>
       <c r="H66" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
         <v>49</v>
       </c>
@@ -2299,22 +2299,22 @@
       </c>
       <c r="D67" s="13">
         <f t="shared" si="1"/>
-        <v>171199.594124897</v>
+        <v>228266.12549986268</v>
       </c>
       <c r="E67" s="13">
         <f t="shared" si="2"/>
-        <v>153833.34985289996</v>
+        <v>205111.13313719997</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="3"/>
-        <v>192985.75246821402</v>
+        <v>257314.33662428538</v>
       </c>
       <c r="H67" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
         <v>50</v>
       </c>
@@ -2324,22 +2324,22 @@
       </c>
       <c r="D68" s="13">
         <f t="shared" si="1"/>
-        <v>214771.91081153101</v>
+        <v>286362.54774870805</v>
       </c>
       <c r="E68" s="13">
         <f t="shared" si="2"/>
-        <v>192985.75246821402</v>
+        <v>257314.33662428538</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="3"/>
-        <v>242102.90350782921</v>
+        <v>322803.87134377228</v>
       </c>
       <c r="H68" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
         <v>51</v>
       </c>
@@ -2349,22 +2349,22 @@
       </c>
       <c r="D69" s="13">
         <f t="shared" si="1"/>
-        <v>269433.89620412741</v>
+        <v>359245.19493883656</v>
       </c>
       <c r="E69" s="13">
         <f t="shared" si="2"/>
-        <v>242102.90350782921</v>
+        <v>322803.87134377228</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="3"/>
-        <v>303720.94901967095</v>
+        <v>404961.26535956119</v>
       </c>
       <c r="H69" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
         <v>52</v>
       </c>
@@ -2374,22 +2374,22 @@
       </c>
       <c r="D70" s="13">
         <f t="shared" si="1"/>
-        <v>338008.00183521444</v>
+        <v>450677.33578028588</v>
       </c>
       <c r="E70" s="13">
         <f t="shared" si="2"/>
-        <v>303720.94901967095</v>
+        <v>404961.26535956119</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="3"/>
-        <v>381021.51414481673</v>
+        <v>508028.68552642228</v>
       </c>
       <c r="H70" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <v>53</v>
       </c>
@@ -2399,22 +2399,22 @@
       </c>
       <c r="D71" s="13">
         <f t="shared" si="1"/>
-        <v>424035.02645441901</v>
+        <v>565380.03527255869</v>
       </c>
       <c r="E71" s="13">
         <f t="shared" si="2"/>
-        <v>381021.51414481673</v>
+        <v>508028.68552642228</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="3"/>
-        <v>477995.98516270315</v>
+        <v>637327.98021693761</v>
       </c>
       <c r="H71" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <v>54</v>
       </c>
@@ -2424,22 +2424,22 @@
       </c>
       <c r="D72" s="13">
         <f t="shared" si="1"/>
-        <v>531956.94387098728</v>
+        <v>709275.92516131641</v>
       </c>
       <c r="E72" s="13">
         <f t="shared" si="2"/>
-        <v>477995.98516270315</v>
+        <v>637327.98021693761</v>
       </c>
       <c r="F72" s="5">
         <f t="shared" si="3"/>
-        <v>599651.60325519973</v>
+        <v>799535.47100693313</v>
       </c>
       <c r="H72" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <v>55</v>
       </c>
@@ -2449,22 +2449,22 @@
       </c>
       <c r="D73" s="13">
         <f t="shared" si="1"/>
-        <v>667346.26263941231</v>
+        <v>889795.01685254974</v>
       </c>
       <c r="E73" s="13">
         <f t="shared" si="2"/>
-        <v>599651.60325519973</v>
+        <v>799535.47100693313</v>
       </c>
       <c r="F73" s="5">
         <f t="shared" si="3"/>
-        <v>752270.01156533742</v>
+        <v>1003026.6820871166</v>
       </c>
       <c r="H73" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <v>56</v>
       </c>
@@ -2474,22 +2474,22 @@
       </c>
       <c r="D74" s="13">
         <f t="shared" si="1"/>
-        <v>837193.76049126266</v>
+        <v>1116258.3473216835</v>
       </c>
       <c r="E74" s="13">
         <f t="shared" si="2"/>
-        <v>752270.01156533742</v>
+        <v>1003026.6820871166</v>
       </c>
       <c r="F74" s="5">
         <f t="shared" si="3"/>
-        <v>943731.60553307645</v>
+        <v>1258308.8073774353</v>
       </c>
       <c r="H74" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <v>57</v>
       </c>
@@ -2499,22 +2499,22 @@
       </c>
       <c r="D75" s="13">
         <f t="shared" si="1"/>
-        <v>1050269.4505748902</v>
+        <v>1400359.2674331868</v>
       </c>
       <c r="E75" s="13">
         <f t="shared" si="2"/>
-        <v>943731.60553307645</v>
+        <v>1258308.8073774353</v>
       </c>
       <c r="F75" s="5">
         <f t="shared" si="3"/>
-        <v>1183922.4342185329</v>
+        <v>1578563.2456247103</v>
       </c>
       <c r="H75" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="7">
         <v>58</v>
       </c>
@@ -2524,22 +2524,22 @@
       </c>
       <c r="D76" s="13">
         <f t="shared" si="1"/>
-        <v>1317575.4178621753</v>
+        <v>1756767.2238162337</v>
       </c>
       <c r="E76" s="13">
         <f t="shared" si="2"/>
-        <v>1183922.4342185329</v>
+        <v>1578563.2456247103</v>
       </c>
       <c r="F76" s="5">
         <f t="shared" si="3"/>
-        <v>1485244.6628129899</v>
+        <v>1980326.2170839864</v>
       </c>
       <c r="H76" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="7">
         <v>59</v>
       </c>
@@ -2549,22 +2549,22 @@
       </c>
       <c r="D77" s="13">
         <f t="shared" si="1"/>
-        <v>1652913.9077638045</v>
+        <v>2203885.2103517391</v>
       </c>
       <c r="E77" s="13">
         <f t="shared" si="2"/>
-        <v>1485244.6628129899</v>
+        <v>1980326.2170839864</v>
       </c>
       <c r="F77" s="5">
         <f t="shared" si="3"/>
-        <v>1863256.953881904</v>
+        <v>2484342.6051758719</v>
       </c>
       <c r="H77" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
         <v>60</v>
       </c>
@@ -2574,22 +2574,22 @@
       </c>
       <c r="D78" s="13">
         <f t="shared" si="1"/>
-        <v>2073600.0000000035</v>
+        <v>2764800.0000000047</v>
       </c>
       <c r="E78" s="13">
         <f t="shared" si="2"/>
-        <v>1863256.953881904</v>
+        <v>2484342.6051758719</v>
       </c>
       <c r="F78" s="5">
         <f t="shared" si="3"/>
-        <v>2337477.8331901026</v>
+        <v>3116637.1109201368</v>
       </c>
       <c r="H78" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="7">
         <v>61</v>
       </c>
@@ -2599,22 +2599,22 @@
       </c>
       <c r="D79" s="13">
         <f t="shared" si="1"/>
-        <v>2601355.6663802019</v>
+        <v>3468474.2218402689</v>
       </c>
       <c r="E79" s="13">
         <f t="shared" si="2"/>
-        <v>2337477.8331901026</v>
+        <v>3116637.1109201368</v>
       </c>
       <c r="F79" s="5">
         <f t="shared" si="3"/>
-        <v>2932393.5216084002</v>
+        <v>3909858.0288112001</v>
       </c>
       <c r="H79" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="7">
         <v>62</v>
       </c>
@@ -2624,22 +2624,22 @@
       </c>
       <c r="D80" s="13">
         <f t="shared" si="1"/>
-        <v>3263431.3768365984</v>
+        <v>4351241.8357821312</v>
       </c>
       <c r="E80" s="13">
         <f t="shared" si="2"/>
-        <v>2932393.5216084002</v>
+        <v>3909858.0288112001</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" si="3"/>
-        <v>3678722.2721318435</v>
+        <v>4904963.0295091253</v>
       </c>
       <c r="H80" s="19" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8">
         <v>63</v>
       </c>
@@ -2649,22 +2649,22 @@
       </c>
       <c r="D81" s="9">
         <f t="shared" si="1"/>
-        <v>4094013.1674270891</v>
+        <v>5458684.2232361184</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" si="2"/>
-        <v>3678722.2721318435</v>
+        <v>4904963.0295091253</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="3"/>
-        <v>2047006.5837135445</v>
+        <v>2729342.1116180592</v>
       </c>
       <c r="H81" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -2690,13 +2690,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556B9780-770B-4608-B0D0-7A6DD4871528}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="123" workbookViewId="0">
+    <sheetView zoomScale="123" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>29</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>7040.5231178220511</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>30</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>7459.1744083159037</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>31</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>7902.720000000033</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>32</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>4186.3200925275596</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>33</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>4435.2516392077396</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>34</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>4698.9854259371687</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>35</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>4978.4016397126243</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>36</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>5274.4328061733268</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>37</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>5588.0669018185745</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>38</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>5920.3506512874674</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>39</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>6272.3930207050898</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>40</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>6645.3689187538621</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3201,12 +3201,12 @@
         <v>1.0594630943592953</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>28</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="39">
         <f>B3-B2</f>
         <v>1.6400000000000006</v>
@@ -3276,7 +3276,7 @@
         <v>248.93154668017996</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>45</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>2.44140625</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>44</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>2^A30</f>
         <v>2</v>
